--- a/biology/Botanique/Echinopsis/Echinopsis.xlsx
+++ b/biology/Botanique/Echinopsis/Echinopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Echinopsis est une genre de plantes à fleurs de la famille des Cactaceae. C'est l'un des principaux genres de sa famille avec près de 180 espèces décrites originaires d'Amérique du Sud. Les Echinopsis sont parfois dénommés cactus-oursins ou cactus lys de Pâques[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echinopsis est une genre de plantes à fleurs de la famille des Cactaceae. C'est l'un des principaux genres de sa famille avec près de 180 espèces décrites originaires d'Amérique du Sud. Les Echinopsis sont parfois dénommés cactus-oursins ou cactus lys de Pâques.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du grec Echinos (=hérisson ou oursin) et Opsis (=apparence) : en forme de hérisson à cause des épines.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces vont d'espèces de la taille d'un arbre à de petits cactus globuleux.
 Une petite espèce, E. chamaecereus, est connue sous le nom de cactus cacahuete.
@@ -575,7 +591,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Echinopsis se trouvent seulement en Amérique du Sud (Nord de l'Argentine, Bolivie, sud du Brésil, Uruguay, Paraguay). Elles poussent uniquement dans les situations où le sol est sablonneux ou graveleux, sur les flancs de collines ou dans les fissures des roches.
 </t>
@@ -606,7 +624,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les saisons de croissance et de repos de Echinopsis sont les mêmes que pour Echinocactus.
 Le calcaire maintient le sol poreux, il est important que le sol soit bien drainé.
@@ -644,8 +664,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Transferts vers Echinopsis
-Des études dans les années 1970 et 1980 ont absorbé dans Echinopsis plusieurs genres précédemment distincts :
+          <t>Transferts vers Echinopsis</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des études dans les années 1970 et 1980 ont absorbé dans Echinopsis plusieurs genres précédemment distincts :
  Acantholobivia  Backeb.
  Acanthopetalus  Y. Itô 
  Andenea   Fric  (Nom. inval.)
@@ -676,9 +701,9 @@
  Soehrensia  Backeb.
  Trichocereus  (A. Berger) Riccob .
 Certains ont proposé de fusionner Rebutia ainsi.
-Les modifications taxonomiques ont été critiquées ([2]). En particulier l'inclusion du genreTrichocereus , et la formation d'un immense nouveau genre complexe sans un accompagnement de monographie.
+Les modifications taxonomiques ont été critiquées (). En particulier l'inclusion du genreTrichocereus , et la formation d'un immense nouveau genre complexe sans un accompagnement de monographie.
 Certains problèmes se posent également en raison de collisions de noms d'espèces. Plus particulièrement, il existait deux Echinopsis Bridgesii et Trichocereus Bridgesii , qui sont des plantes très différentes. Echinopsis Bridgesii est un cactus court agglutiné, tandis que Trichocereus Bridgesiiest un grand cactus en colonne similaire au cactus San Pedro. Dans la nouvelle classification, Trichocereus Bridgesii est connu sous le nom de Echinopsis lageniformis . Il convient de souligner que beaucoup utilisent encore l'ancien appellation Trichocereus, en particulier dans les écrits ethnobotaniques.
-Espèces</t>
+</t>
         </is>
       </c>
     </row>
